--- a/biology/Botanique/Dunaliellaceae/Dunaliellaceae.xlsx
+++ b/biology/Botanique/Dunaliellaceae/Dunaliellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dunaliellaceae sont une famille d’algues vertes de l’ordre des Chlamydomonadales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Dunaliella, donné par le botaniste roumain Teodoresco (en) en hommage au botaniste français Michel Félix Dunal qui fut le premier à découvrir l'algue en examinant les saumures rouges des salines méditerranéennes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Dunaliella, donné par le botaniste roumain Teodoresco (en) en hommage au botaniste français Michel Félix Dunal qui fut le premier à découvrir l'algue en examinant les saumures rouges des salines méditerranéennes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des genres selon GBIF       (1er mai 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des genres selon GBIF       (1er mai 2021) :
 Apiochloris Pascher, 1930
 Aulacomonas
 Chloronephris Pascher &amp; Jahoda, 1928
@@ -560,7 +576,7 @@
 Quadrichloris Fott, 1959
 Silvamonas Skvortzov, 1967
 Spermatozopsis Korshikov, 1913
-Selon World Register of Marine Species                               (1 mai 2021)[4] :
+Selon World Register of Marine Species                               (1 mai 2021) :
 Apiochloris Pascher, 1930
 Chloronephris Pascher &amp; Jahoda, 1928
 Dunaliella Teodoresco, 1905
